--- a/Collections/США/Юбилейные 1, 5 центов США из недрагоценных металлов.xlsx
+++ b/Collections/США/Юбилейные 1, 5 центов США из недрагоценных металлов.xlsx
@@ -1,13 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20725"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_92C51C3C9FA34CFA49446FF210276D5FC7599C70" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="1 цент" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="5 центов" sheetId="2" r:id="rId4"/>
+    <sheet name="1 цент" sheetId="1" r:id="rId1"/>
+    <sheet name="5 центов" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179020"/>
 </workbook>
 </file>
 
@@ -44,16 +48,16 @@
     <t>Юность Линкольна</t>
   </si>
   <si>
+    <t>Карьера юриста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Период президентства. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Экспедиции Льюиса и Кларка </t>
   </si>
   <si>
-    <t>Карьера юриста</t>
-  </si>
-  <si>
     <t>Рукопожатие</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Период президентства. </t>
   </si>
   <si>
     <t>Корабль Луиса и Кларка</t>
@@ -68,31 +72,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="14.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
@@ -102,7 +109,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -136,7 +143,13 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -147,19 +160,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -169,6 +187,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -177,9 +196,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -194,6 +215,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -202,68 +224,86 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" textRotation="90" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB8E08C"/>
+          <bgColor rgb="FFB8E08C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -275,17 +315,38 @@
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE5B8B7"/>
-          <bgColor rgb="FFE5B8B7"/>
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD6E3BC"/>
+          <bgColor rgb="FFD6E3BC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FFFDE9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -298,188 +359,474 @@
           <bgColor rgb="FFB8E08C"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
+          <fgColor rgb="FFE5B8B7"/>
+          <bgColor rgb="FFE5B8B7"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFDE9D9"/>
-          <bgColor rgb="FFFDE9D9"/>
+          <fgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD6E3BC"/>
-          <bgColor rgb="FFD6E3BC"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6.0" ySplit="2.0" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G1" sqref="G1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="G3" sqref="G3" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.43"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="5" width="9.43"/>
-    <col customWidth="1" min="6" max="6" width="8.71"/>
-    <col customWidth="1" min="7" max="7" width="12.43"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="I2" s="7"/>
+      <c r="F2" s="16"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="8">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="12" t="str">
-        <f t="shared" ref="F3:F6" si="1">IF(OR(AND(D3&gt;0,E3&gt;0),AND(D3&gt;0,E3="-"),AND(E3&gt;0,D3="-")),"OK",IF(OR(AND(D3=0,E3=0),AND(D3=0,E3="-"),AND(E3=0,D3="-")),"!!!!!!!!!!",""))</f>
-        <v>!!!!!!!!!!</v>
-      </c>
-      <c r="G3" s="13" t="str">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F6" si="0">IF(OR(AND(D3&gt;0,E3&gt;0),AND(D3&gt;0,E3="-"),AND(E3&gt;0,D3="-")),"OK",IF(OR(AND(D3=0,E3=0),AND(D3=0,E3="-"),AND(E3=0,D3="-")),"!!!!!!!!!!",""))</f>
+        <v/>
+      </c>
+      <c r="G3" s="6" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10" t="s">
+    <row r="6" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>!!!!!!!!!!</v>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1475,22 +1822,22 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(F3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="3">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E6">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1507,158 +1854,159 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E6">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:E6">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6.0" ySplit="2.0" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="G1" sqref="G1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="G3" sqref="G3" pane="bottomRight"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.43"/>
-    <col customWidth="1" min="2" max="2" width="16.57"/>
-    <col customWidth="1" min="3" max="3" width="20.71"/>
-    <col customWidth="1" min="4" max="5" width="9.43"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="16"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="16">
-        <v>2004.0</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A3" s="7">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="12" t="str">
-        <f t="shared" ref="F3:F6" si="1">IF(OR(AND(D3&gt;0,E3&gt;0),AND(D3&gt;0,E3="-"),AND(E3&gt;0,D3="-")),"OK",IF(OR(AND(D3=0,E3=0),AND(D3=0,E3="-"),AND(E3=0,D3="-")),"!!!!!!!!!!",""))</f>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F6" si="0">IF(OR(AND(D3&gt;0,E3&gt;0),AND(D3&gt;0,E3="-"),AND(E3&gt;0,D3="-")),"OK",IF(OR(AND(D3=0,E3=0),AND(D3=0,E3="-"),AND(E3=0,D3="-")),"!!!!!!!!!!",""))</f>
         <v/>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="16">
-        <v>2004.0</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10" t="s">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A4" s="7">
+        <v>2004</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="16">
-        <v>2005.0</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A5" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="16">
-        <v>2005.0</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A6" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="12" t="str">
-        <f t="shared" si="1"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>OK</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2670,7 +3018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="!">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="!">
       <formula>NOT(ISERROR(SEARCH(("!"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2680,10 +3028,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
 </file>